--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -245,23 +245,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,23 +280,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,13 +474,19 @@
       <c r="B2">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4">
         <f>G2*E23</f>
-        <v>93.75</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,13 +496,19 @@
       <c r="B3">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4">
         <f>G3*E23</f>
-        <v>112.5</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,13 +518,19 @@
       <c r="B4">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4">
         <f>G4*E23</f>
-        <v>112.5</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -556,13 +540,19 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4">
         <f>G5*E23</f>
-        <v>112.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,13 +562,19 @@
       <c r="B6">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4">
         <f>G6*E23</f>
-        <v>112.5</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,13 +584,19 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4">
         <f>G7*E18</f>
-        <v>92.5</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Di</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>(Lohn*gPN)+(Lohn+Gkz)</t>
+  </si>
+  <si>
+    <t>Gesammt</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,18 +671,28 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="4">
         <f>G13*B24</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM(H2:H13)</f>
+        <v>1836.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,18 +478,21 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
       </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H2" s="4">
         <f>G2*E23</f>
-        <v>281.25</v>
+        <v>421.875</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,13 +508,16 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4">
         <f>G3*E23</f>
-        <v>337.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -527,13 +533,16 @@
       <c r="D4">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <f>G4*E23</f>
-        <v>337.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,13 +558,16 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4">
         <f>G5*E23</f>
-        <v>225</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,13 +583,16 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4">
         <f>G6*E23</f>
-        <v>337.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -587,19 +602,16 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="E7">
+        <v>0.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="4">
         <f>G7*E18</f>
-        <v>277.5</v>
+        <v>138.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,7 +704,7 @@
       </c>
       <c r="H15" s="4">
         <f>SUM(H2:H13)</f>
-        <v>1836.25</v>
+        <v>2288.125</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,13 +486,16 @@
       <c r="E2">
         <v>5.5</v>
       </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
-        <v>22.5</v>
+        <v>28.5</v>
       </c>
       <c r="H2" s="4">
         <f>G2*E23</f>
-        <v>421.875</v>
+        <v>534.375</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -511,13 +514,16 @@
       <c r="E3">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <f>G3*E23</f>
-        <v>450</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -536,13 +542,16 @@
       <c r="E4">
         <v>6</v>
       </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4">
         <f>G4*E23</f>
-        <v>450</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,13 +570,16 @@
       <c r="E5">
         <v>6</v>
       </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <f>G5*E23</f>
-        <v>337.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,13 +598,16 @@
       <c r="E6">
         <v>6</v>
       </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4">
         <f>G6*E23</f>
-        <v>450</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,7 +719,7 @@
       </c>
       <c r="H15" s="4">
         <f>SUM(H2:H13)</f>
-        <v>2288.125</v>
+        <v>2850.625</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
